--- a/Industry/201612-201908/HKD/MILLION/Analysis_126_32 - Household Electrical Appliance_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_126_32 - Household Electrical Appliance_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -29276,6 +29277,1314 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14559.997</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15607.849</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.197</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9809.759</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15151.143</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2.926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10515.924</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.199</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3152.227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3101.96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.595</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1657.282</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2540.304</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-18.106</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1582.761</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4.497</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19.874</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.894</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.766</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2100.283</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2857.911</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.073</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1349.828</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2263.366</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-20.803</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1327.194</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.677</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.311</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.939</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1103.051</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1005.502</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-8.843999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>839.287</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1323.648</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1189.695</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41.751</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.576</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.442</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.555999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.736000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1124.829</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1138.502</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="E6" t="n">
+        <v>985.487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1286.973</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.041</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1062.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.822</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.046</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.494</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1240.805</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1241.936</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E7" t="n">
+        <v>849.985</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1372.143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.484</v>
+      </c>
+      <c r="H7" t="n">
+        <v>936.692</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.201</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.522</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.957</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.664999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.055999999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="n">
+        <v>480.621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>470.081</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>377.343</v>
+      </c>
+      <c r="F8" t="n">
+        <v>686.169</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45.968</v>
+      </c>
+      <c r="H8" t="n">
+        <v>757.751</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100.812</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.012</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.529</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" t="n">
+        <v>800.303</v>
+      </c>
+      <c r="C9" t="n">
+        <v>733.114</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-8.395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>433.748</v>
+      </c>
+      <c r="F9" t="n">
+        <v>693.321</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-5.428</v>
+      </c>
+      <c r="H9" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44.727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.497</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.422</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.576</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="n">
+        <v>416.801</v>
+      </c>
+      <c r="C10" t="n">
+        <v>564.423</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.418</v>
+      </c>
+      <c r="E10" t="n">
+        <v>490.443</v>
+      </c>
+      <c r="F10" t="n">
+        <v>696.885</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23.468</v>
+      </c>
+      <c r="H10" t="n">
+        <v>436.374</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-11.024</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.863</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.616</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="n">
+        <v>652.277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>639.999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.882</v>
+      </c>
+      <c r="E11" t="n">
+        <v>439.611</v>
+      </c>
+      <c r="F11" t="n">
+        <v>572.769</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-10.505</v>
+      </c>
+      <c r="H11" t="n">
+        <v>405.319</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-7.801</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.481</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="n">
+        <v>402.662</v>
+      </c>
+      <c r="C12" t="n">
+        <v>711.808</v>
+      </c>
+      <c r="D12" t="n">
+        <v>76.77500000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>426.539</v>
+      </c>
+      <c r="F12" t="n">
+        <v>731.655</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.788</v>
+      </c>
+      <c r="H12" t="n">
+        <v>374.338</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-12.238</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.561</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.829</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" t="n">
+        <v>412.087</v>
+      </c>
+      <c r="C13" t="n">
+        <v>404.962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.729</v>
+      </c>
+      <c r="E13" t="n">
+        <v>324.368</v>
+      </c>
+      <c r="F13" t="n">
+        <v>518.903</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.136</v>
+      </c>
+      <c r="H13" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.595</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.425</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="n">
+        <v>605.275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>636.23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.114</v>
+      </c>
+      <c r="E14" t="n">
+        <v>363.437</v>
+      </c>
+      <c r="F14" t="n">
+        <v>519.22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-18.391</v>
+      </c>
+      <c r="H14" t="n">
+        <v>361.753</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.463</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.157</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.076</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.427</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" t="n">
+        <v>687.804</v>
+      </c>
+      <c r="C15" t="n">
+        <v>784.0410000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>510.659</v>
+      </c>
+      <c r="F15" t="n">
+        <v>750.0359999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4.337</v>
+      </c>
+      <c r="H15" t="n">
+        <v>334.935</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-34.411</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.724</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.023</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.206</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" t="n">
+        <v>226.931</v>
+      </c>
+      <c r="C16" t="n">
+        <v>213.164</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-6.067</v>
+      </c>
+      <c r="E16" t="n">
+        <v>152.254</v>
+      </c>
+      <c r="F16" t="n">
+        <v>227.011</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.496</v>
+      </c>
+      <c r="H16" t="n">
+        <v>171.632</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.728</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" t="n">
+        <v>218.745</v>
+      </c>
+      <c r="C17" t="n">
+        <v>238.789</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.163</v>
+      </c>
+      <c r="E17" t="n">
+        <v>139.118</v>
+      </c>
+      <c r="F17" t="n">
+        <v>201.005</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-15.823</v>
+      </c>
+      <c r="H17" t="n">
+        <v>112.513</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-19.124</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73.44799999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>98.294</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.828</v>
+      </c>
+      <c r="E18" t="n">
+        <v>98.58499999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>140.734</v>
+      </c>
+      <c r="G18" t="n">
+        <v>43.176</v>
+      </c>
+      <c r="H18" t="n">
+        <v>90.923</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7.772</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="n">
+        <v>167.791</v>
+      </c>
+      <c r="C19" t="n">
+        <v>164.852</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.751</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88.83499999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>134.03</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-18.697</v>
+      </c>
+      <c r="H19" t="n">
+        <v>87.16500000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1.879</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110.108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>145.449</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.097</v>
+      </c>
+      <c r="E20" t="n">
+        <v>81.553</v>
+      </c>
+      <c r="F20" t="n">
+        <v>175.782</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.854</v>
+      </c>
+      <c r="H20" t="n">
+        <v>75.398</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-7.547</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="n">
+        <v>212.223</v>
+      </c>
+      <c r="C21" t="n">
+        <v>181.412</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-14.518</v>
+      </c>
+      <c r="E21" t="n">
+        <v>80.358</v>
+      </c>
+      <c r="F21" t="n">
+        <v>122.125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-32.681</v>
+      </c>
+      <c r="H21" t="n">
+        <v>70.959</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-11.695</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55.607</v>
+      </c>
+      <c r="C22" t="n">
+        <v>65.515</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.816</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30.593</v>
+      </c>
+      <c r="F22" t="n">
+        <v>46.642</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-28.806</v>
+      </c>
+      <c r="H22" t="n">
+        <v>56.313</v>
+      </c>
+      <c r="I22" t="n">
+        <v>84.069</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="n">
+        <v>127.182</v>
+      </c>
+      <c r="C23" t="n">
+        <v>89.69199999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-29.478</v>
+      </c>
+      <c r="E23" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75.18300000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-16.176</v>
+      </c>
+      <c r="H23" t="n">
+        <v>51.022</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23.778</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46.159</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.858</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-46.147</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.615</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27.718</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11.509</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13.538</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-34.33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="n">
+        <v>108.364</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80.012</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-26.164</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.617</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-62.389</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.824</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-36.489</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.981</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.392</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.563</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.678</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-35.034</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.287</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" t="n">
+        <v>21.058</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.187</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-80.117</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.782</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.492</v>
+      </c>
+      <c r="G27" t="n">
+        <v>31.166</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-28.466</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-13.89</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.305</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.877</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.394</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-71.42100000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.052</v>
+      </c>
+      <c r="G29" t="n">
+        <v>118.931</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-33.302</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
